--- a/final-project-workload-plan.xlsx
+++ b/final-project-workload-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markv\Documents\Repositories\computergraphicsassignments\Bachelor\final_project2_ray_tracing\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Desktop\TUDelft\Year2\Q1\CG\Project\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8641C375-39C5-4194-BBBA-6311F38FA9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD584EFE-DEBC-40AE-9459-96655A8EA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workload" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>FILL IN THE BLUE BOXES ONLY</t>
   </si>
@@ -50,21 +49,6 @@
     <t>Fill in the percentages with integer values in range [0-100]</t>
   </si>
   <si>
-    <t>member 1</t>
-  </si>
-  <si>
-    <t>member 2</t>
-  </si>
-  <si>
-    <t>member 3</t>
-  </si>
-  <si>
-    <t>&lt;student id&gt;</t>
-  </si>
-  <si>
-    <t>&lt;student name&gt;</t>
-  </si>
-  <si>
     <t>basic features</t>
   </si>
   <si>
@@ -129,6 +113,18 @@
   </si>
   <si>
     <t>implementation of multisampling</t>
+  </si>
+  <si>
+    <t>Rares Serban</t>
+  </si>
+  <si>
+    <t>Member 1</t>
+  </si>
+  <si>
+    <t>Member 2</t>
+  </si>
+  <si>
+    <t>Vasil Chirov</t>
   </si>
 </sst>
 </file>
@@ -203,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,19 +226,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -289,24 +272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,7 +294,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -332,7 +301,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,18 +314,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,13 +350,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,484 +747,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.46484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.46484375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="21.1328125" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="25"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="22"/>
+      <c r="D5" s="4">
+        <v>5756731</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5715067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SUM(D8:E8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
+        <f>SUM(D9:E9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <f>SUM(D10:E10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="27">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G15" si="0">SUM(D8:F8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <f>SUM(D11:E11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="9">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f>SUM(D12:E12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(D13:E13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="26">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f>SUM(D14:E14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="28">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="28">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="29">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="C15" s="26">
         <v>1.75</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <f>SUM(D15:E15)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="27">
         <f>SUM(C8:C15)</f>
         <v>18</v>
       </c>
-      <c r="D16" s="16">
-        <f>SUMPRODUCT(C8:C15,D8:D15)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <f>SUMPRODUCT($C8:$C15,E8:E15)/100</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <f>SUMPRODUCT($C8:$C15,F8:F15)/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>8</v>
+      <c r="D16" s="14">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="16">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <f>SUM(D19:E19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="24">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(D20:E20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6">
+        <f>SUM(D21:E21)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="16">
+        <v>100</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f>SUM(D22:E22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19:G24" si="1">SUM(D19:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27">
-        <v>2</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="C23" s="24">
         <v>1</v>
       </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>100</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(D23:E23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="24">
         <v>3.5</v>
       </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="33">
+      <c r="D24" s="16">
+        <v>100</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f>SUM(D24:E24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30">
         <f>SUM(C19:C24)</f>
         <v>14</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <f>SUMPRODUCT($C19:$C24,D19:D24)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="E25" s="14">
         <f>SUMPRODUCT($C19:$C24,E19:E24)/100</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <f>SUMPRODUCT($C19:$C24,F19:F24)/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="19">
         <f>D$16+D25</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="E26" s="19">
         <f>E$16+E25</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="22">
-        <f>F$16+F25</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1270,21 +1167,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
-        <v>19</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/final-project-workload-plan.xlsx
+++ b/final-project-workload-plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Desktop\TUDelft\Year2\Q1\CG\Project\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD584EFE-DEBC-40AE-9459-96655A8EA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA37196-00B5-4239-A695-15A217A9CE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>FILL IN THE BLUE BOXES ONLY</t>
   </si>
@@ -49,6 +48,21 @@
     <t>Fill in the percentages with integer values in range [0-100]</t>
   </si>
   <si>
+    <t>member 1</t>
+  </si>
+  <si>
+    <t>member 2</t>
+  </si>
+  <si>
+    <t>member 3</t>
+  </si>
+  <si>
+    <t>&lt;student id&gt;</t>
+  </si>
+  <si>
+    <t>&lt;student name&gt;</t>
+  </si>
+  <si>
     <t>basic features</t>
   </si>
   <si>
@@ -91,37 +105,31 @@
     <t>generation and traversal of acceleration data-structure</t>
   </si>
   <si>
+    <t>implementation of shading models</t>
+  </si>
+  <si>
+    <t>implementation of recursive ray reflections</t>
+  </si>
+  <si>
+    <t>implementation of recursive ray transparency</t>
+  </si>
+  <si>
     <t>implementation of texture mapping</t>
   </si>
   <si>
     <t>implementation of lights and shadows</t>
   </si>
   <si>
-    <t>implementation of shading models</t>
-  </si>
-  <si>
-    <t>implementation of recursive ray reflections</t>
-  </si>
-  <si>
-    <t>implementation of recursive ray transparency</t>
+    <t>Environment maps</t>
   </si>
   <si>
     <t>Bloom filter</t>
   </si>
   <si>
-    <t>Environment maps</t>
-  </si>
-  <si>
     <t>implementation of multisampling</t>
   </si>
   <si>
     <t>Rares Serban</t>
-  </si>
-  <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
   </si>
   <si>
     <t>Vasil Chirov</t>
@@ -167,14 +175,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -199,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -226,6 +234,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -272,11 +293,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +328,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -301,6 +336,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -314,18 +350,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,28 +381,19 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,417 +784,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="31" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4">
         <v>5756731</v>
       </c>
       <c r="E5" s="4">
         <v>5715067</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>15</v>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="24">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>100</v>
-      </c>
-      <c r="F8" s="6">
-        <f>SUM(D8:E8)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>18</v>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G15" si="0">SUM(D8:F8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6">
-        <f>SUM(D9:E9)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>19</v>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>100</v>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(D10:E10)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>20</v>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6">
-        <f>SUM(D11:E11)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>5</v>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="26">
         <v>0.75</v>
       </c>
-      <c r="D12" s="9">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <f>SUM(D12:E12)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="26">
         <v>1.5</v>
       </c>
-      <c r="D13" s="9">
-        <v>100</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <f>SUM(D13:E13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="26">
         <v>5</v>
       </c>
-      <c r="D14" s="9">
-        <v>100</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <f>SUM(D14:E14)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>23</v>
+      <c r="D14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="26">
         <v>1.75</v>
       </c>
-      <c r="D15" s="9">
-        <v>100</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <f>SUM(D15:E15)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="30">
         <f>SUM(C8:C15)</f>
         <v>18</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="16">
+        <f>SUMPRODUCT(C8:C15,D8:D15)/100</f>
         <v>9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="16">
+        <f>SUMPRODUCT($C8:$C15,E8:E15)/100</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>3</v>
+      <c r="F16" s="16">
+        <f>SUMPRODUCT($C8:$C15,F8:F15)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8" t="s">
-        <v>22</v>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
-      <c r="D19" s="16">
-        <v>100</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <f>SUM(D19:E19)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>7</v>
+      <c r="D19" s="18">
+        <v>100</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19:G24" si="1">SUM(D19:F19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="24">
         <v>2</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6">
-        <f>SUM(D20:E20)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>8</v>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>100</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="24">
         <v>4.5</v>
       </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6">
-        <f>SUM(D21:E21)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>21</v>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="24">
         <v>1.5</v>
       </c>
-      <c r="D22" s="16">
-        <v>100</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <f>SUM(D22:E22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>9</v>
+      <c r="D22" s="18">
+        <v>100</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="24">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>100</v>
-      </c>
-      <c r="F23" s="6">
-        <f>SUM(D23:E23)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>10</v>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="24">
         <v>3.5</v>
       </c>
-      <c r="D24" s="16">
-        <v>100</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <f>SUM(D24:E24)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="D24" s="18">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="33">
         <f>SUM(C19:C24)</f>
         <v>14</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="16">
         <f>SUMPRODUCT($C19:$C24,D19:D24)/100</f>
         <v>6.5</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="16">
         <f>SUMPRODUCT($C19:$C24,E19:E24)/100</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="19">
+      <c r="F25" s="16">
+        <f>SUMPRODUCT($C19:$C24,F19:F24)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="21">
         <f>D$16+D25</f>
         <v>15.5</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="21">
         <f>E$16+E25</f>
         <v>16.5</v>
       </c>
+      <c r="F26" s="22">
+        <f>F$16+F25</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1170,18 +1277,18 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
+      <c r="A1" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>13</v>
+      <c r="A2" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>14</v>
+      <c r="A3" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
